--- a/public/01_Output/AlarmasU2020_Tower3_2023-03-21 12 35 29.xlsx
+++ b/public/01_Output/AlarmasU2020_Tower3_2023-03-21 12 35 29.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="487">
   <si>
     <t>Name</t>
   </si>
@@ -486,183 +486,204 @@
     <t>Última milla</t>
   </si>
   <si>
+    <t>CHO7153</t>
+  </si>
+  <si>
+    <t>CHO7141</t>
+  </si>
+  <si>
+    <t>ANT7040</t>
+  </si>
+  <si>
+    <t>ANT7044</t>
+  </si>
+  <si>
+    <t>CHO7145</t>
+  </si>
+  <si>
+    <t>CHO7140</t>
+  </si>
+  <si>
+    <t>CHO7147</t>
+  </si>
+  <si>
     <t>CHO7148</t>
   </si>
   <si>
-    <t>CHO7147</t>
-  </si>
-  <si>
     <t>CHO7134</t>
   </si>
   <si>
-    <t>CHO7145</t>
+    <t>CHO7133</t>
+  </si>
+  <si>
+    <t>CHO7150</t>
   </si>
   <si>
     <t>ANT7036</t>
   </si>
   <si>
-    <t>ANT7040</t>
-  </si>
-  <si>
-    <t>CHO7150</t>
-  </si>
-  <si>
-    <t>CHO7141</t>
-  </si>
-  <si>
-    <t>CHO7140</t>
-  </si>
-  <si>
-    <t>ANT7044</t>
+    <t>CHO7033</t>
+  </si>
+  <si>
+    <t>CHO7156</t>
+  </si>
+  <si>
+    <t>CHO7183</t>
+  </si>
+  <si>
+    <t>RIS7002</t>
+  </si>
+  <si>
+    <t>RIS7001</t>
+  </si>
+  <si>
+    <t>CHO7204</t>
+  </si>
+  <si>
+    <t>CHO7194</t>
+  </si>
+  <si>
+    <t>CHO7186</t>
+  </si>
+  <si>
+    <t>CHO7185</t>
+  </si>
+  <si>
+    <t>CHO7184</t>
+  </si>
+  <si>
+    <t>CHO7181</t>
+  </si>
+  <si>
+    <t>ANT7035</t>
+  </si>
+  <si>
+    <t>CHO7178</t>
+  </si>
+  <si>
+    <t>CHO7175</t>
+  </si>
+  <si>
+    <t>CHO7173</t>
+  </si>
+  <si>
+    <t>CHO7170</t>
+  </si>
+  <si>
+    <t>CHO7169</t>
   </si>
   <si>
     <t>CHO7168</t>
   </si>
   <si>
-    <t>CHO7153</t>
-  </si>
-  <si>
-    <t>CHO7183</t>
-  </si>
-  <si>
-    <t>RIS7002</t>
-  </si>
-  <si>
-    <t>RIS7001</t>
-  </si>
-  <si>
-    <t>CHO7194</t>
-  </si>
-  <si>
-    <t>CHO7186</t>
-  </si>
-  <si>
-    <t>CHO7185</t>
-  </si>
-  <si>
-    <t>CHO7184</t>
-  </si>
-  <si>
-    <t>CHO7181</t>
-  </si>
-  <si>
-    <t>CHO7156</t>
-  </si>
-  <si>
-    <t>CHO7178</t>
-  </si>
-  <si>
-    <t>CHO7175</t>
-  </si>
-  <si>
-    <t>CHO7173</t>
-  </si>
-  <si>
-    <t>CHO7169</t>
+    <t>CHO7130</t>
   </si>
   <si>
     <t>CHO7131</t>
   </si>
   <si>
-    <t>ANT7035</t>
-  </si>
-  <si>
-    <t>CHO7133</t>
+    <t>ANT7136</t>
+  </si>
+  <si>
+    <t>CHO7126</t>
+  </si>
+  <si>
+    <t>ANT7061</t>
+  </si>
+  <si>
+    <t>CHO7005</t>
+  </si>
+  <si>
+    <t>CHO7012</t>
+  </si>
+  <si>
+    <t>CHO7014</t>
+  </si>
+  <si>
+    <t>CHO7023</t>
+  </si>
+  <si>
+    <t>CHO7050</t>
+  </si>
+  <si>
+    <t>CHO7049</t>
+  </si>
+  <si>
+    <t>CHO7048</t>
+  </si>
+  <si>
+    <t>CHO7047</t>
+  </si>
+  <si>
+    <t>CHO7044</t>
+  </si>
+  <si>
+    <t>CHO7041</t>
+  </si>
+  <si>
+    <t>CHO7039</t>
+  </si>
+  <si>
+    <t>CHO7038</t>
+  </si>
+  <si>
+    <t>CHO7028</t>
+  </si>
+  <si>
+    <t>CHO7030</t>
+  </si>
+  <si>
+    <t>CHO7062</t>
+  </si>
+  <si>
+    <t>CHO7069</t>
+  </si>
+  <si>
+    <t>CHO7070</t>
+  </si>
+  <si>
+    <t>CHO7090</t>
   </si>
   <si>
     <t>CHO7113</t>
   </si>
   <si>
-    <t>CHO7130</t>
-  </si>
-  <si>
-    <t>CHO7070</t>
-  </si>
-  <si>
-    <t>CHO7030</t>
-  </si>
-  <si>
-    <t>CHO7038</t>
-  </si>
-  <si>
-    <t>CHO7039</t>
-  </si>
-  <si>
-    <t>CHO7041</t>
-  </si>
-  <si>
-    <t>CHO7044</t>
-  </si>
-  <si>
-    <t>CHO7047</t>
-  </si>
-  <si>
-    <t>CHO7049</t>
-  </si>
-  <si>
-    <t>CHO7028</t>
-  </si>
-  <si>
-    <t>CHO7023</t>
-  </si>
-  <si>
-    <t>CHO7014</t>
-  </si>
-  <si>
-    <t>CHO7012</t>
-  </si>
-  <si>
-    <t>CHO7062</t>
-  </si>
-  <si>
-    <t>CHO7069</t>
-  </si>
-  <si>
-    <t>CHO7005</t>
-  </si>
-  <si>
-    <t>CHO7126</t>
+    <t>ANT7148</t>
+  </si>
+  <si>
+    <t>CHO7001</t>
+  </si>
+  <si>
+    <t>CHO7098</t>
+  </si>
+  <si>
+    <t>CHO7094</t>
+  </si>
+  <si>
+    <t>CHO7092</t>
+  </si>
+  <si>
+    <t>CHO7089</t>
+  </si>
+  <si>
+    <t>CHO7087</t>
+  </si>
+  <si>
+    <t>ANT7034</t>
+  </si>
+  <si>
+    <t>CHO7084</t>
+  </si>
+  <si>
+    <t>CHO7083</t>
+  </si>
+  <si>
+    <t>CHO7080</t>
   </si>
   <si>
     <t>CHO7075</t>
   </si>
   <si>
-    <t>CHO7080</t>
-  </si>
-  <si>
-    <t>CHO7083</t>
-  </si>
-  <si>
-    <t>ANT7034</t>
-  </si>
-  <si>
-    <t>CHO7087</t>
-  </si>
-  <si>
-    <t>CHO7089</t>
-  </si>
-  <si>
-    <t>CHO7090</t>
-  </si>
-  <si>
-    <t>CHO7094</t>
-  </si>
-  <si>
-    <t>CHO7098</t>
-  </si>
-  <si>
-    <t>CHO7001</t>
-  </si>
-  <si>
-    <t>ANT7148</t>
-  </si>
-  <si>
-    <t>CHO7033</t>
-  </si>
-  <si>
-    <t>ANT7136</t>
-  </si>
-  <si>
     <t>ANT7033</t>
   </si>
   <si>
@@ -678,226 +699,226 @@
     <t>VAC0090</t>
   </si>
   <si>
+    <t>ANT1016</t>
+  </si>
+  <si>
     <t>ANT1034</t>
   </si>
   <si>
-    <t>ANT1016</t>
+    <t>CHO7141-SATÉLITE</t>
+  </si>
+  <si>
+    <t>ANT7040-SATÉLITE</t>
+  </si>
+  <si>
+    <t>ANT7044-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7139-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7145-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7140-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7147-VAC0090-VAC7001</t>
   </si>
   <si>
     <t>CHO7148-CHO7147-VAC0090-VAC7001</t>
   </si>
   <si>
-    <t>CHO7147-VAC0090-VAC7001</t>
-  </si>
-  <si>
     <t>CHO7134-CHO7133-SATÉLITE</t>
   </si>
   <si>
-    <t>CHO7145-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7139-SATÉLITE</t>
-  </si>
-  <si>
-    <t>ANT7040-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7141-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7140-SATÉLITE</t>
-  </si>
-  <si>
-    <t>ANT7044-SATÉLITE</t>
+    <t>CHO7133-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7185-CHO7133-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7178-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7175-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7173-CHO7014-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7169-SATÉLITE</t>
   </si>
   <si>
     <t>CHO7168-SATÉLITE</t>
   </si>
   <si>
-    <t>CHO7185-CHO7133-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7178-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7175-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7173-CHO7014-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7169-SATÉLITE</t>
+    <t>CHO7130-SATÉLITE</t>
   </si>
   <si>
     <t>CHO7131-SATÉLITE</t>
   </si>
   <si>
-    <t>CHO7133-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7130-SATÉLITE</t>
+    <t>CHO7126-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7005-CHO7004-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7012-CHO7027-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7014-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7027-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7039-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7038-ANT1016</t>
+  </si>
+  <si>
+    <t>CHO7030-ANT1034</t>
   </si>
   <si>
     <t>CHO7070-SATÉLITE</t>
   </si>
   <si>
-    <t>CHO7030-ANT1034</t>
-  </si>
-  <si>
-    <t>CHO7038-ANT1016</t>
-  </si>
-  <si>
-    <t>CHO7039-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7027-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7014-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7012-CHO7027-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7005-CHO7004-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7126-SATÉLITE</t>
+    <t>CHO7090-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7001-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7094-SATÉLITE</t>
+  </si>
+  <si>
+    <t>CHO7089-CHO7090-SATÉLITE</t>
   </si>
   <si>
     <t>CHO7004-SATÉLITE</t>
   </si>
   <si>
-    <t>CHO7089-CHO7090-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7090-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7094-SATÉLITE</t>
-  </si>
-  <si>
-    <t>CHO7001-SATÉLITE</t>
+    <t>4.206805, -77.293028</t>
+  </si>
+  <si>
+    <t>7.310731, -75.818631</t>
+  </si>
+  <si>
+    <t>7.331661, -75.559811</t>
+  </si>
+  <si>
+    <t>4.847449, -76.636321</t>
+  </si>
+  <si>
+    <t>4.279235, -77.485818</t>
+  </si>
+  <si>
+    <t>4.596452, -76.920298</t>
+  </si>
+  <si>
+    <t>4.193069, -77.055739</t>
   </si>
   <si>
     <t>4.268258, -76.992008</t>
   </si>
   <si>
-    <t>4.193069, -77.055739</t>
-  </si>
-  <si>
     <t>4.72339, -76.877695</t>
   </si>
   <si>
-    <t>4.279235, -77.485818</t>
-  </si>
-  <si>
-    <t>4.847449, -76.636321</t>
-  </si>
-  <si>
-    <t>7.310731, -75.818631</t>
-  </si>
-  <si>
-    <t>4.206805, -77.293028</t>
-  </si>
-  <si>
-    <t>4.596452, -76.920298</t>
-  </si>
-  <si>
-    <t>7.331661, -75.559811</t>
+    <t>4.676418, -76.943133</t>
+  </si>
+  <si>
+    <t>4.585165, -76.99173</t>
+  </si>
+  <si>
+    <t>4.86126, -77.33445</t>
+  </si>
+  <si>
+    <t>4.738183023, -76.64268202</t>
+  </si>
+  <si>
+    <t>6.5214, -77.00239</t>
+  </si>
+  <si>
+    <t>4.83658638, -77.32406841</t>
   </si>
   <si>
     <t>4.698362474, -77.29347511</t>
   </si>
   <si>
-    <t>4.585165, -76.99173</t>
-  </si>
-  <si>
-    <t>4.86126, -77.33445</t>
-  </si>
-  <si>
-    <t>4.738183023, -76.64268202</t>
-  </si>
-  <si>
-    <t>6.5214, -77.00239</t>
-  </si>
-  <si>
-    <t>4.83658638, -77.32406841</t>
+    <t>4.8794444, -76.865278</t>
   </si>
   <si>
     <t>4.543411, -77.298905</t>
   </si>
   <si>
-    <t>4.676418, -76.943133</t>
-  </si>
-  <si>
-    <t>4.8794444, -76.865278</t>
+    <t>4.974537, -76.423221</t>
+  </si>
+  <si>
+    <t>7.503197, -77.377839</t>
+  </si>
+  <si>
+    <t>6.34998, -77.36341</t>
+  </si>
+  <si>
+    <t>6.67582, -76.905899</t>
+  </si>
+  <si>
+    <t>6.39727, -77.35288</t>
+  </si>
+  <si>
+    <t>7.91062, -77.08091</t>
+  </si>
+  <si>
+    <t>7.49808, -76.65969</t>
+  </si>
+  <si>
+    <t>8.40513, -77.14316</t>
   </si>
   <si>
     <t>5.54455, -76.99817</t>
   </si>
   <si>
-    <t>8.40513, -77.14316</t>
-  </si>
-  <si>
-    <t>7.49808, -76.65969</t>
-  </si>
-  <si>
-    <t>7.91062, -77.08091</t>
-  </si>
-  <si>
-    <t>6.39727, -77.35288</t>
-  </si>
-  <si>
-    <t>6.67582, -76.905899</t>
-  </si>
-  <si>
-    <t>6.34998, -77.36341</t>
-  </si>
-  <si>
-    <t>7.503197, -77.377839</t>
-  </si>
-  <si>
-    <t>4.974537, -76.423221</t>
+    <t>5.33593, -76.88234</t>
+  </si>
+  <si>
+    <t>7.6944, -77.3126</t>
+  </si>
+  <si>
+    <t>5.51254, -76.47759</t>
+  </si>
+  <si>
+    <t>5.2759, -76.92566</t>
   </si>
   <si>
     <t>7.4517, -77.3578</t>
   </si>
   <si>
-    <t>5.2759, -76.92566</t>
-  </si>
-  <si>
-    <t>5.33593, -76.88234</t>
-  </si>
-  <si>
-    <t>5.51254, -76.47759</t>
-  </si>
-  <si>
-    <t>7.6944, -77.3126</t>
+    <t>ITUANGO</t>
+  </si>
+  <si>
+    <t>MEDIO SAN JUAN</t>
   </si>
   <si>
     <t>ISTMINA</t>
   </si>
   <si>
-    <t>ITUANGO</t>
-  </si>
-  <si>
-    <t>MEDIO SAN JUAN</t>
-  </si>
-  <si>
     <t>BOJAYÁ</t>
   </si>
   <si>
+    <t>VIGÍA DEL FUERTE - BOJAYÁ</t>
+  </si>
+  <si>
+    <t>UNGUÍA</t>
+  </si>
+  <si>
+    <t>TURBO</t>
+  </si>
+  <si>
     <t>ACANDÍ</t>
-  </si>
-  <si>
-    <t>TURBO</t>
-  </si>
-  <si>
-    <t>UNGUÍA</t>
-  </si>
-  <si>
-    <t>VIGÍA DEL FUERTE - BOJAYÁ</t>
   </si>
   <si>
     <t>LLORÓ</t>
@@ -5007,7 +5028,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5850,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>56</v>
@@ -6465,7 +6486,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2">
         <v>1.933333333333333</v>
@@ -6489,36 +6510,36 @@
         <v>49</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>146</v>
       </c>
       <c r="Q28" s="4">
-        <v>44837</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
         <v>1.933333333333333</v>
@@ -6542,31 +6563,31 @@
         <v>49</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>146</v>
       </c>
       <c r="Q29" s="4">
-        <v>44651</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6807,31 +6828,31 @@
         <v>49</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q34" s="4">
-        <v>44805</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -6860,22 +6881,22 @@
         <v>49</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>144</v>
@@ -6884,7 +6905,7 @@
         <v>146</v>
       </c>
       <c r="Q35" s="4">
-        <v>44651</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -6913,31 +6934,31 @@
         <v>49</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="Q36" s="4">
-        <v>44744</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -6975,22 +6996,22 @@
         <v>49</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="Q37" s="4">
-        <v>44649</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -7028,13 +7049,13 @@
         <v>49</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>131</v>
@@ -7072,7 +7093,7 @@
         <v>49</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>49</v>
@@ -7081,22 +7102,22 @@
         <v>49</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q39" s="4">
-        <v>44976</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -7134,22 +7155,22 @@
         <v>49</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="Q40" s="4">
-        <v>44720</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -7178,31 +7199,31 @@
         <v>49</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>49</v>
+        <v>267</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q41" s="4">
-        <v>44847</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -7231,22 +7252,22 @@
         <v>49</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>144</v>
@@ -7255,7 +7276,7 @@
         <v>146</v>
       </c>
       <c r="Q42" s="4">
-        <v>44645</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -7284,31 +7305,31 @@
         <v>49</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>146</v>
       </c>
       <c r="Q43" s="4">
-        <v>44651</v>
+        <v>44744</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -7346,22 +7367,22 @@
         <v>49</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="Q44" s="4">
-        <v>44720</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -7390,7 +7411,7 @@
         <v>49</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>49</v>
@@ -7399,22 +7420,22 @@
         <v>49</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>263</v>
+        <v>49</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q45" s="4">
-        <v>44649</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -7467,7 +7488,7 @@
         <v>49</v>
       </c>
       <c r="Q46" s="4">
-        <v>44900</v>
+        <v>44976</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -7520,7 +7541,7 @@
         <v>49</v>
       </c>
       <c r="Q47" s="4">
-        <v>44835</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -7573,7 +7594,7 @@
         <v>49</v>
       </c>
       <c r="Q48" s="4">
-        <v>44972</v>
+        <v>44968</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -7626,7 +7647,7 @@
         <v>49</v>
       </c>
       <c r="Q49" s="4">
-        <v>44971</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -7679,7 +7700,7 @@
         <v>49</v>
       </c>
       <c r="Q50" s="4">
-        <v>44981</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -7732,7 +7753,7 @@
         <v>49</v>
       </c>
       <c r="Q51" s="4">
-        <v>44904</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -7761,31 +7782,31 @@
         <v>49</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>286</v>
+        <v>49</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q52" s="4">
-        <v>44806</v>
+        <v>45004</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -7838,7 +7859,7 @@
         <v>49</v>
       </c>
       <c r="Q53" s="4">
-        <v>44845</v>
+        <v>44981</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -7891,7 +7912,7 @@
         <v>49</v>
       </c>
       <c r="Q54" s="4">
-        <v>44971</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -7920,31 +7941,31 @@
         <v>49</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>49</v>
+        <v>295</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q55" s="4">
-        <v>44968</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -7973,7 +7994,7 @@
         <v>49</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>49</v>
@@ -7982,22 +8003,22 @@
         <v>49</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>265</v>
+        <v>49</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q56" s="4">
-        <v>44631</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -8026,7 +8047,7 @@
         <v>49</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>49</v>
@@ -8035,22 +8056,22 @@
         <v>49</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q57" s="4">
-        <v>44645</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -8079,31 +8100,31 @@
         <v>49</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q58" s="4">
-        <v>44631</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -8141,13 +8162,13 @@
         <v>49</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>136</v>
@@ -8194,22 +8215,22 @@
         <v>49</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>146</v>
       </c>
       <c r="Q60" s="4">
-        <v>44651</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -8238,31 +8259,31 @@
         <v>49</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q61" s="4">
-        <v>44979</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -8291,7 +8312,7 @@
         <v>49</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>49</v>
@@ -8300,22 +8321,22 @@
         <v>49</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>288</v>
+        <v>49</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q62" s="4">
-        <v>44681</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -8344,7 +8365,7 @@
         <v>49</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>49</v>
@@ -8353,22 +8374,22 @@
         <v>49</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q63" s="4">
-        <v>44999</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -8406,22 +8427,22 @@
         <v>49</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>288</v>
+        <v>136</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>146</v>
       </c>
       <c r="Q64" s="4">
-        <v>44638</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -8459,22 +8480,22 @@
         <v>49</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>146</v>
       </c>
       <c r="Q65" s="4">
-        <v>44651</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -8503,31 +8524,31 @@
         <v>49</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>290</v>
+        <v>144</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>146</v>
       </c>
       <c r="Q66" s="4">
-        <v>44723</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -8556,31 +8577,31 @@
         <v>49</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>291</v>
+        <v>49</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="Q67" s="4">
-        <v>44529</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -8618,22 +8639,22 @@
         <v>49</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>146</v>
       </c>
       <c r="Q68" s="4">
-        <v>44651</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -8686,7 +8707,7 @@
         <v>49</v>
       </c>
       <c r="Q69" s="4">
-        <v>44999</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -8715,31 +8736,31 @@
         <v>49</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q70" s="4">
-        <v>44838</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -8768,7 +8789,7 @@
         <v>49</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>49</v>
@@ -8777,22 +8798,22 @@
         <v>49</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q71" s="4">
-        <v>44979</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -8821,7 +8842,7 @@
         <v>49</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>49</v>
@@ -8830,22 +8851,22 @@
         <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="Q72" s="4">
-        <v>45000</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -8898,7 +8919,7 @@
         <v>49</v>
       </c>
       <c r="Q73" s="4">
-        <v>44866</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -8936,13 +8957,13 @@
         <v>49</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>137</v>
@@ -9004,7 +9025,7 @@
         <v>49</v>
       </c>
       <c r="Q75" s="4">
-        <v>44896</v>
+        <v>45009</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -9033,7 +9054,7 @@
         <v>49</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>49</v>
@@ -9042,22 +9063,22 @@
         <v>49</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>277</v>
+        <v>49</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>293</v>
+        <v>49</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>296</v>
+        <v>49</v>
       </c>
       <c r="Q76" s="4">
-        <v>44637</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -9086,7 +9107,7 @@
         <v>49</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>49</v>
@@ -9095,22 +9116,22 @@
         <v>49</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>246</v>
+        <v>49</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q77" s="4">
-        <v>44785</v>
+        <v>49</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -9163,7 +9184,7 @@
         <v>49</v>
       </c>
       <c r="Q78" s="4">
-        <v>44875</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -9216,7 +9237,7 @@
         <v>49</v>
       </c>
       <c r="Q79" s="4">
-        <v>44842</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -9245,31 +9266,31 @@
         <v>49</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>247</v>
+        <v>49</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>279</v>
+        <v>49</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q80" s="4">
-        <v>44637</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -9307,27 +9328,27 @@
         <v>49</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>146</v>
       </c>
       <c r="Q81" s="4">
-        <v>44779</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="B82" s="2">
         <v>0</v>
@@ -9351,36 +9372,36 @@
         <v>49</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="Q82" s="4">
-        <v>44631</v>
+        <v>44529</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -9428,12 +9449,12 @@
         <v>49</v>
       </c>
       <c r="Q83" s="4">
-        <v>44910</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B84" s="2">
         <v>0</v>
@@ -9457,36 +9478,36 @@
         <v>49</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>49</v>
+        <v>286</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>49</v>
+        <v>300</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q84" s="4">
-        <v>44958</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B85" s="2">
         <v>0</v>
@@ -9534,12 +9555,12 @@
         <v>49</v>
       </c>
       <c r="Q85" s="4">
-        <v>44923</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -9587,12 +9608,12 @@
         <v>49</v>
       </c>
       <c r="Q86" s="4">
-        <v>44973</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B87" s="2">
         <v>0</v>
@@ -9616,7 +9637,7 @@
         <v>49</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>49</v>
@@ -9625,27 +9646,27 @@
         <v>49</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q87" s="4">
-        <v>44896</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -9669,22 +9690,22 @@
         <v>49</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>135</v>
@@ -9693,12 +9714,12 @@
         <v>146</v>
       </c>
       <c r="Q88" s="4">
-        <v>44638</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -9722,7 +9743,7 @@
         <v>49</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>49</v>
@@ -9731,27 +9752,27 @@
         <v>49</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>283</v>
+        <v>49</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q89" s="4">
-        <v>44547</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
@@ -9775,7 +9796,7 @@
         <v>49</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>49</v>
@@ -9784,27 +9805,27 @@
         <v>49</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>252</v>
+        <v>49</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>284</v>
+        <v>49</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q90" s="4">
-        <v>44638</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -9828,7 +9849,7 @@
         <v>49</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>49</v>
@@ -9837,27 +9858,27 @@
         <v>49</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>49</v>
+        <v>289</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q91" s="4">
-        <v>44997</v>
+        <v>44529</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -9881,7 +9902,7 @@
         <v>49</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>49</v>
@@ -9890,27 +9911,27 @@
         <v>49</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="Q92" s="4">
-        <v>44529</v>
+        <v>44997</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B93" s="2">
         <v>0</v>
@@ -9934,7 +9955,7 @@
         <v>49</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>49</v>
@@ -9943,27 +9964,27 @@
         <v>49</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q93" s="4">
-        <v>44985</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B94" s="2">
         <v>0</v>
@@ -10011,12 +10032,12 @@
         <v>49</v>
       </c>
       <c r="Q94" s="4">
-        <v>44986</v>
+        <v>45010</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -10040,36 +10061,36 @@
         <v>49</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>49</v>
+        <v>291</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q95" s="4">
-        <v>44980</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="2" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -10093,7 +10114,7 @@
         <v>49</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>49</v>
@@ -10102,21 +10123,392 @@
         <v>49</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>49</v>
+        <v>260</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>49</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q96" s="4">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q103" s="4">
         <v>44988</v>
       </c>
     </row>
@@ -10127,7 +10519,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10155,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -10191,15 +10583,15 @@
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
@@ -10246,7 +10638,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
@@ -10293,7 +10685,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
@@ -10340,7 +10732,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>49</v>
@@ -10387,10 +10779,10 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>53</v>
@@ -10405,7 +10797,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>49</v>
@@ -10414,30 +10806,30 @@
         <v>98</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M6" s="4">
         <v>44720</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>53</v>
@@ -10452,7 +10844,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>49</v>
@@ -10461,13 +10853,13 @@
         <v>98</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M7" s="4">
         <v>44720</v>
@@ -10481,7 +10873,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>49</v>
@@ -10517,7 +10909,7 @@
         <v>49</v>
       </c>
       <c r="M8" s="4">
-        <v>44980</v>
+        <v>45006</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>49</v>
@@ -10528,7 +10920,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>49</v>
@@ -10564,7 +10956,7 @@
         <v>49</v>
       </c>
       <c r="M9" s="4">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>49</v>
@@ -10575,16 +10967,16 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>49</v>
@@ -10593,63 +10985,63 @@
         <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M10" s="4">
-        <v>44529</v>
+        <v>44985</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>367</v>
+        <v>49</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>424</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>139</v>
@@ -10658,45 +11050,45 @@
         <v>146</v>
       </c>
       <c r="M11" s="4">
-        <v>44837</v>
+        <v>44529</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>139</v>
@@ -10705,45 +11097,45 @@
         <v>146</v>
       </c>
       <c r="M12" s="4">
-        <v>44631</v>
+        <v>44837</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>139</v>
@@ -10752,21 +11144,21 @@
         <v>146</v>
       </c>
       <c r="M13" s="4">
-        <v>44637</v>
+        <v>44631</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>55</v>
@@ -10775,22 +11167,22 @@
         <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>139</v>
@@ -10799,21 +11191,21 @@
         <v>146</v>
       </c>
       <c r="M14" s="4">
-        <v>44631</v>
+        <v>44637</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
@@ -10822,51 +11214,51 @@
         <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M15" s="4">
-        <v>44785</v>
+        <v>44631</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>49</v>
@@ -10875,45 +11267,45 @@
         <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>293</v>
+        <v>137</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="M16" s="4">
-        <v>44637</v>
+        <v>44785</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>315</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>49</v>
@@ -10922,45 +11314,45 @@
         <v>49</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="M17" s="4">
-        <v>44896</v>
+        <v>44637</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>49</v>
+        <v>380</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>49</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>49</v>
@@ -10969,45 +11361,45 @@
         <v>49</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M18" s="4">
-        <v>44642</v>
+        <v>44896</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>374</v>
+        <v>49</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>431</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>316</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -11016,139 +11408,139 @@
         <v>49</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M19" s="4">
-        <v>44866</v>
+        <v>44642</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>49</v>
+        <v>381</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>49</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>290</v>
+        <v>49</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M20" s="4">
-        <v>44723</v>
+        <v>44866</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>375</v>
+        <v>49</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>432</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>49</v>
+        <v>286</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>49</v>
+        <v>300</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M21" s="4">
-        <v>44986</v>
+        <v>44723</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>49</v>
+        <v>382</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>49</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>311</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>49</v>
@@ -11157,39 +11549,39 @@
         <v>49</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M22" s="4">
-        <v>44588</v>
+        <v>44986</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>376</v>
+        <v>49</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>433</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>53</v>
@@ -11204,7 +11596,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>49</v>
@@ -11213,54 +11605,54 @@
         <v>98</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M23" s="4">
-        <v>44637</v>
+        <v>44588</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>137</v>
@@ -11269,121 +11661,121 @@
         <v>146</v>
       </c>
       <c r="M24" s="4">
-        <v>44795</v>
+        <v>44637</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="M25" s="4">
-        <v>44529</v>
+        <v>44795</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="M26" s="4">
-        <v>44651</v>
+        <v>44529</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>49</v>
@@ -11392,36 +11784,36 @@
         <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M27" s="4">
-        <v>44999</v>
+        <v>44651</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>49</v>
+        <v>387</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>49</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>49</v>
@@ -11457,7 +11849,7 @@
         <v>49</v>
       </c>
       <c r="M28" s="4">
-        <v>44838</v>
+        <v>44999</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>49</v>
@@ -11468,101 +11860,101 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>316</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M29" s="4">
-        <v>44655</v>
+        <v>44838</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>381</v>
+        <v>49</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>438</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M30" s="4">
-        <v>44979</v>
+        <v>44655</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>49</v>
+        <v>388</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>49</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>49</v>
@@ -11598,7 +11990,7 @@
         <v>49</v>
       </c>
       <c r="M31" s="4">
-        <v>45000</v>
+        <v>44979</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>49</v>
@@ -11609,16 +12001,16 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>49</v>
@@ -11627,25 +12019,25 @@
         <v>49</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M32" s="4">
-        <v>44813</v>
+        <v>49</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>49</v>
@@ -11656,16 +12048,16 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>318</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>49</v>
@@ -11674,86 +12066,86 @@
         <v>49</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M33" s="4">
-        <v>44649</v>
+        <v>45000</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>382</v>
+        <v>49</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>439</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M34" s="4">
-        <v>44631</v>
+        <v>45009</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>383</v>
+        <v>49</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>440</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>53</v>
@@ -11768,7 +12160,7 @@
         <v>49</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>49</v>
@@ -11777,30 +12169,30 @@
         <v>98</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M35" s="4">
-        <v>44588</v>
+        <v>44813</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>384</v>
+        <v>49</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>441</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>53</v>
@@ -11815,7 +12207,7 @@
         <v>49</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>49</v>
@@ -11824,57 +12216,57 @@
         <v>98</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M36" s="4">
-        <v>44631</v>
+        <v>44649</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>146</v>
@@ -11883,24 +12275,24 @@
         <v>44631</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>49</v>
@@ -11909,45 +12301,45 @@
         <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M38" s="4">
-        <v>44631</v>
+        <v>44588</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>49</v>
@@ -11956,92 +12348,92 @@
         <v>49</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M39" s="4">
-        <v>44875</v>
+        <v>44631</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>49</v>
+        <v>392</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>49</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M40" s="4">
-        <v>44797</v>
+        <v>44631</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>49</v>
@@ -12050,36 +12442,36 @@
         <v>49</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M41" s="4">
-        <v>44785</v>
+        <v>44631</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>49</v>
@@ -12115,7 +12507,7 @@
         <v>49</v>
       </c>
       <c r="M42" s="4">
-        <v>44842</v>
+        <v>44875</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>49</v>
@@ -12126,34 +12518,34 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>134</v>
@@ -12162,21 +12554,21 @@
         <v>146</v>
       </c>
       <c r="M43" s="4">
-        <v>44651</v>
+        <v>44797</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>49</v>
+        <v>395</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>49</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>53</v>
@@ -12191,7 +12583,7 @@
         <v>49</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>49</v>
@@ -12200,7 +12592,7 @@
         <v>98</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>134</v>
@@ -12209,27 +12601,27 @@
         <v>146</v>
       </c>
       <c r="M44" s="4">
-        <v>44649</v>
+        <v>44785</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>328</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>49</v>
@@ -12238,45 +12630,45 @@
         <v>49</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M45" s="4">
-        <v>44699</v>
+        <v>44842</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>391</v>
+        <v>49</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>448</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>49</v>
@@ -12285,25 +12677,25 @@
         <v>49</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M46" s="4">
-        <v>44910</v>
+        <v>44651</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>49</v>
@@ -12314,16 +12706,16 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>334</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>49</v>
@@ -12332,45 +12724,45 @@
         <v>49</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M47" s="4">
-        <v>44958</v>
+        <v>44649</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>49</v>
+        <v>397</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>49</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="2" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>335</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>49</v>
@@ -12379,45 +12771,45 @@
         <v>49</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M48" s="4">
-        <v>44923</v>
+        <v>44699</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>49</v>
+        <v>398</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>49</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>329</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>49</v>
@@ -12426,36 +12818,36 @@
         <v>49</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M49" s="4">
-        <v>44637</v>
+        <v>44910</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>392</v>
+        <v>49</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>449</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -12491,7 +12883,7 @@
         <v>49</v>
       </c>
       <c r="M50" s="4">
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>49</v>
@@ -12502,104 +12894,104 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M51" s="4">
-        <v>44651</v>
+        <v>44923</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>393</v>
+        <v>49</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>450</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>331</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>282</v>
+        <v>49</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M52" s="4">
-        <v>44638</v>
+        <v>45005</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>394</v>
+        <v>49</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>451</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="2" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>53</v>
@@ -12614,7 +13006,7 @@
         <v>49</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>251</v>
+        <v>95</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>49</v>
@@ -12623,36 +13015,36 @@
         <v>98</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>283</v>
+        <v>128</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M53" s="4">
-        <v>44547</v>
+        <v>44637</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>333</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>49</v>
@@ -12661,110 +13053,110 @@
         <v>49</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>252</v>
+        <v>49</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>284</v>
+        <v>49</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M54" s="4">
-        <v>44638</v>
+        <v>44896</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>396</v>
+        <v>49</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M55" s="4">
-        <v>44997</v>
+        <v>44651</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>49</v>
+        <v>400</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>49</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>135</v>
@@ -12773,21 +13165,21 @@
         <v>146</v>
       </c>
       <c r="M56" s="4">
-        <v>44786</v>
+        <v>44638</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="2" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>53</v>
@@ -12802,7 +13194,7 @@
         <v>49</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>49</v>
@@ -12811,7 +13203,7 @@
         <v>98</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>135</v>
@@ -12820,27 +13212,27 @@
         <v>146</v>
       </c>
       <c r="M57" s="4">
-        <v>44516</v>
+        <v>44547</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="2" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>49</v>
@@ -12849,25 +13241,25 @@
         <v>49</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M58" s="4">
-        <v>44795</v>
+        <v>45010</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>49</v>
@@ -12878,16 +13270,16 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>49</v>
+        <v>340</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>49</v>
@@ -12896,45 +13288,45 @@
         <v>49</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M59" s="4">
-        <v>44999</v>
+        <v>44638</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>49</v>
+        <v>403</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>49</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="2" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>337</v>
+        <v>49</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>49</v>
@@ -12943,25 +13335,25 @@
         <v>49</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M60" s="4">
-        <v>44819</v>
+        <v>44997</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>49</v>
@@ -12972,57 +13364,57 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="2" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M61" s="4">
-        <v>44779</v>
+        <v>44786</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>53</v>
@@ -13037,7 +13429,7 @@
         <v>49</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>49</v>
@@ -13046,30 +13438,30 @@
         <v>98</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>271</v>
+        <v>109</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M62" s="4">
-        <v>44638</v>
+        <v>44516</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>53</v>
@@ -13084,7 +13476,7 @@
         <v>49</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>49</v>
@@ -13093,36 +13485,36 @@
         <v>98</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M63" s="4">
-        <v>44651</v>
+        <v>44795</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>401</v>
+        <v>49</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>458</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>341</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>49</v>
@@ -13131,86 +13523,86 @@
         <v>49</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>288</v>
+        <v>49</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M64" s="4">
-        <v>44681</v>
+        <v>44999</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>402</v>
+        <v>49</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>459</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M65" s="4">
-        <v>44744</v>
+        <v>44819</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>403</v>
+        <v>49</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>460</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>53</v>
@@ -13225,7 +13617,7 @@
         <v>49</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>49</v>
@@ -13234,30 +13626,30 @@
         <v>98</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M66" s="4">
-        <v>44653</v>
+        <v>44779</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>53</v>
@@ -13272,7 +13664,7 @@
         <v>49</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>49</v>
@@ -13281,77 +13673,77 @@
         <v>98</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M67" s="4">
-        <v>44652</v>
+        <v>44638</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M68" s="4">
-        <v>44645</v>
+        <v>44651</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>49</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>53</v>
@@ -13366,7 +13758,7 @@
         <v>49</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>49</v>
@@ -13375,22 +13767,22 @@
         <v>98</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M69" s="4">
-        <v>44631</v>
+        <v>44681</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -13398,54 +13790,54 @@
         <v>164</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M70" s="4">
-        <v>44651</v>
+        <v>44744</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>53</v>
@@ -13460,7 +13852,7 @@
         <v>49</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>49</v>
@@ -13469,57 +13861,57 @@
         <v>98</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M71" s="4">
-        <v>44645</v>
+        <v>44653</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>146</v>
@@ -13528,45 +13920,45 @@
         <v>44652</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>146</v>
@@ -13575,18 +13967,18 @@
         <v>44645</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>410</v>
+        <v>49</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>467</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>53</v>
@@ -13601,7 +13993,7 @@
         <v>49</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>49</v>
@@ -13610,57 +14002,57 @@
         <v>98</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M74" s="4">
-        <v>44649</v>
+        <v>44631</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>364</v>
+        <v>53</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>365</v>
+        <v>98</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>144</v>
+        <v>294</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>146</v>
@@ -13669,42 +14061,42 @@
         <v>44651</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>364</v>
+        <v>53</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>365</v>
+        <v>98</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>144</v>
@@ -13713,45 +14105,45 @@
         <v>146</v>
       </c>
       <c r="M76" s="4">
-        <v>44805</v>
+        <v>44645</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>144</v>
@@ -13760,27 +14152,27 @@
         <v>146</v>
       </c>
       <c r="M77" s="4">
-        <v>44708</v>
+        <v>44652</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="2" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>49</v>
@@ -13789,45 +14181,45 @@
         <v>49</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M78" s="4">
-        <v>44847</v>
+        <v>44645</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>49</v>
+        <v>417</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>49</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>358</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>49</v>
@@ -13836,133 +14228,133 @@
         <v>49</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M79" s="4">
-        <v>44900</v>
+        <v>44649</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>49</v>
+        <v>418</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>49</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>49</v>
+        <v>371</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>49</v>
+        <v>372</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>49</v>
+        <v>267</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M80" s="4">
-        <v>44968</v>
+        <v>44651</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>49</v>
+        <v>419</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>49</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="2" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>49</v>
+        <v>372</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M81" s="4">
-        <v>44642</v>
+        <v>44805</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="2" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>53</v>
@@ -13977,7 +14369,7 @@
         <v>49</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>49</v>
@@ -13986,36 +14378,36 @@
         <v>98</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>263</v>
+        <v>129</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M82" s="4">
-        <v>44649</v>
+        <v>44708</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>357</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>49</v>
@@ -14024,92 +14416,92 @@
         <v>49</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>268</v>
+        <v>49</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M83" s="4">
-        <v>44631</v>
+        <v>44847</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>417</v>
+        <v>49</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>474</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>358</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M84" s="4">
-        <v>44631</v>
+        <v>44900</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>418</v>
+        <v>49</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>475</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>359</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>49</v>
@@ -14118,86 +14510,86 @@
         <v>49</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M85" s="4">
-        <v>44645</v>
+        <v>44968</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>419</v>
+        <v>49</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>476</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M86" s="4">
-        <v>44631</v>
+        <v>44642</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>53</v>
@@ -14212,7 +14604,7 @@
         <v>49</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>49</v>
@@ -14221,7 +14613,7 @@
         <v>98</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>136</v>
@@ -14230,27 +14622,27 @@
         <v>146</v>
       </c>
       <c r="M87" s="4">
-        <v>44801</v>
+        <v>44649</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>49</v>
+        <v>423</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>49</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>49</v>
+        <v>364</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>49</v>
@@ -14259,36 +14651,36 @@
         <v>49</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M88" s="4">
-        <v>44971</v>
+        <v>44631</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>49</v>
+        <v>424</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>49</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>49</v>
@@ -14324,7 +14716,7 @@
         <v>49</v>
       </c>
       <c r="M89" s="4">
-        <v>44835</v>
+        <v>45009</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>49</v>
@@ -14335,110 +14727,110 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>365</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M90" s="4">
-        <v>44845</v>
+        <v>44631</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>49</v>
+        <v>425</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>49</v>
+        <v>482</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>146</v>
       </c>
       <c r="M91" s="4">
-        <v>44806</v>
+        <v>44645</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>367</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>49</v>
@@ -14447,45 +14839,45 @@
         <v>49</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>49</v>
+        <v>240</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M92" s="4">
-        <v>44904</v>
+        <v>44631</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>49</v>
+        <v>427</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>49</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="2" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>49</v>
@@ -14494,25 +14886,25 @@
         <v>49</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="M93" s="4">
-        <v>44981</v>
+        <v>44801</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>49</v>
@@ -14523,7 +14915,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>49</v>
@@ -14570,7 +14962,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>49</v>
@@ -14606,7 +14998,7 @@
         <v>49</v>
       </c>
       <c r="M95" s="4">
-        <v>44972</v>
+        <v>44835</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>49</v>
@@ -14617,167 +15009,496 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M96" s="4">
+        <v>44845</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M97" s="4">
+        <v>44806</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M98" s="4">
+        <v>44904</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M99" s="4">
+        <v>44981</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M100" s="4">
+        <v>45004</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M101" s="4">
+        <v>44971</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M102" s="4">
+        <v>44972</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B103" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G96" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I96" s="2" t="s">
+      <c r="H103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M96" s="4">
+      <c r="M103" s="4">
         <v>44631</v>
       </c>
-      <c r="N96" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>479</v>
+      <c r="N103" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1"/>
     <hyperlink ref="O6" r:id="rId2"/>
-    <hyperlink ref="N10" r:id="rId3"/>
-    <hyperlink ref="O10" r:id="rId4"/>
-    <hyperlink ref="N11" r:id="rId5"/>
-    <hyperlink ref="O11" r:id="rId6"/>
-    <hyperlink ref="N12" r:id="rId7"/>
-    <hyperlink ref="O12" r:id="rId8"/>
-    <hyperlink ref="N13" r:id="rId9"/>
-    <hyperlink ref="O13" r:id="rId10"/>
-    <hyperlink ref="N14" r:id="rId11"/>
-    <hyperlink ref="O14" r:id="rId12"/>
-    <hyperlink ref="N15" r:id="rId13"/>
-    <hyperlink ref="O15" r:id="rId14"/>
-    <hyperlink ref="N16" r:id="rId15"/>
-    <hyperlink ref="O16" r:id="rId16"/>
-    <hyperlink ref="N18" r:id="rId17"/>
-    <hyperlink ref="O18" r:id="rId18"/>
-    <hyperlink ref="N20" r:id="rId19"/>
-    <hyperlink ref="O20" r:id="rId20"/>
-    <hyperlink ref="N22" r:id="rId21"/>
-    <hyperlink ref="O22" r:id="rId22"/>
-    <hyperlink ref="N23" r:id="rId23"/>
-    <hyperlink ref="O23" r:id="rId24"/>
-    <hyperlink ref="N24" r:id="rId25"/>
-    <hyperlink ref="O24" r:id="rId26"/>
-    <hyperlink ref="N25" r:id="rId27"/>
-    <hyperlink ref="O25" r:id="rId28"/>
-    <hyperlink ref="N26" r:id="rId29"/>
-    <hyperlink ref="O26" r:id="rId30"/>
-    <hyperlink ref="N29" r:id="rId31"/>
-    <hyperlink ref="O29" r:id="rId32"/>
-    <hyperlink ref="N33" r:id="rId33"/>
-    <hyperlink ref="O33" r:id="rId34"/>
-    <hyperlink ref="N34" r:id="rId35"/>
-    <hyperlink ref="O34" r:id="rId36"/>
-    <hyperlink ref="N35" r:id="rId37"/>
-    <hyperlink ref="O35" r:id="rId38"/>
-    <hyperlink ref="N36" r:id="rId39"/>
-    <hyperlink ref="O36" r:id="rId40"/>
-    <hyperlink ref="N37" r:id="rId41"/>
-    <hyperlink ref="O37" r:id="rId42"/>
-    <hyperlink ref="N38" r:id="rId43"/>
-    <hyperlink ref="O38" r:id="rId44"/>
-    <hyperlink ref="N40" r:id="rId45"/>
-    <hyperlink ref="O40" r:id="rId46"/>
-    <hyperlink ref="N41" r:id="rId47"/>
-    <hyperlink ref="O41" r:id="rId48"/>
-    <hyperlink ref="N44" r:id="rId49"/>
-    <hyperlink ref="O44" r:id="rId50"/>
-    <hyperlink ref="N45" r:id="rId51"/>
-    <hyperlink ref="O45" r:id="rId52"/>
-    <hyperlink ref="N49" r:id="rId53"/>
-    <hyperlink ref="O49" r:id="rId54"/>
-    <hyperlink ref="N51" r:id="rId55"/>
-    <hyperlink ref="O51" r:id="rId56"/>
-    <hyperlink ref="N52" r:id="rId57"/>
-    <hyperlink ref="O52" r:id="rId58"/>
-    <hyperlink ref="N53" r:id="rId59"/>
-    <hyperlink ref="O53" r:id="rId60"/>
-    <hyperlink ref="N54" r:id="rId61"/>
-    <hyperlink ref="O54" r:id="rId62"/>
-    <hyperlink ref="N56" r:id="rId63"/>
-    <hyperlink ref="O56" r:id="rId64"/>
-    <hyperlink ref="N57" r:id="rId65"/>
-    <hyperlink ref="O57" r:id="rId66"/>
-    <hyperlink ref="N61" r:id="rId67"/>
-    <hyperlink ref="O61" r:id="rId68"/>
-    <hyperlink ref="N62" r:id="rId69"/>
-    <hyperlink ref="O62" r:id="rId70"/>
-    <hyperlink ref="N63" r:id="rId71"/>
-    <hyperlink ref="O63" r:id="rId72"/>
-    <hyperlink ref="N64" r:id="rId73"/>
-    <hyperlink ref="O64" r:id="rId74"/>
-    <hyperlink ref="N65" r:id="rId75"/>
-    <hyperlink ref="O65" r:id="rId76"/>
-    <hyperlink ref="N66" r:id="rId77"/>
-    <hyperlink ref="O66" r:id="rId78"/>
-    <hyperlink ref="N67" r:id="rId79"/>
-    <hyperlink ref="O67" r:id="rId80"/>
-    <hyperlink ref="N69" r:id="rId81"/>
-    <hyperlink ref="O69" r:id="rId82"/>
-    <hyperlink ref="N70" r:id="rId83"/>
-    <hyperlink ref="O70" r:id="rId84"/>
-    <hyperlink ref="N71" r:id="rId85"/>
-    <hyperlink ref="O71" r:id="rId86"/>
-    <hyperlink ref="N72" r:id="rId87"/>
-    <hyperlink ref="O72" r:id="rId88"/>
-    <hyperlink ref="N73" r:id="rId89"/>
-    <hyperlink ref="O73" r:id="rId90"/>
-    <hyperlink ref="N74" r:id="rId91"/>
-    <hyperlink ref="O74" r:id="rId92"/>
-    <hyperlink ref="N75" r:id="rId93"/>
-    <hyperlink ref="O75" r:id="rId94"/>
-    <hyperlink ref="N76" r:id="rId95"/>
-    <hyperlink ref="O76" r:id="rId96"/>
-    <hyperlink ref="N77" r:id="rId97"/>
-    <hyperlink ref="O77" r:id="rId98"/>
-    <hyperlink ref="N81" r:id="rId99"/>
-    <hyperlink ref="O81" r:id="rId100"/>
-    <hyperlink ref="N82" r:id="rId101"/>
-    <hyperlink ref="O82" r:id="rId102"/>
-    <hyperlink ref="N83" r:id="rId103"/>
-    <hyperlink ref="O83" r:id="rId104"/>
-    <hyperlink ref="N84" r:id="rId105"/>
-    <hyperlink ref="O84" r:id="rId106"/>
-    <hyperlink ref="N85" r:id="rId107"/>
-    <hyperlink ref="O85" r:id="rId108"/>
-    <hyperlink ref="N86" r:id="rId109"/>
-    <hyperlink ref="O86" r:id="rId110"/>
-    <hyperlink ref="N91" r:id="rId111"/>
-    <hyperlink ref="O91" r:id="rId112"/>
-    <hyperlink ref="N96" r:id="rId113"/>
-    <hyperlink ref="O96" r:id="rId114"/>
+    <hyperlink ref="N11" r:id="rId3"/>
+    <hyperlink ref="O11" r:id="rId4"/>
+    <hyperlink ref="N12" r:id="rId5"/>
+    <hyperlink ref="O12" r:id="rId6"/>
+    <hyperlink ref="N13" r:id="rId7"/>
+    <hyperlink ref="O13" r:id="rId8"/>
+    <hyperlink ref="N14" r:id="rId9"/>
+    <hyperlink ref="O14" r:id="rId10"/>
+    <hyperlink ref="N15" r:id="rId11"/>
+    <hyperlink ref="O15" r:id="rId12"/>
+    <hyperlink ref="N16" r:id="rId13"/>
+    <hyperlink ref="O16" r:id="rId14"/>
+    <hyperlink ref="N17" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="N19" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="N21" r:id="rId19"/>
+    <hyperlink ref="O21" r:id="rId20"/>
+    <hyperlink ref="N23" r:id="rId21"/>
+    <hyperlink ref="O23" r:id="rId22"/>
+    <hyperlink ref="N24" r:id="rId23"/>
+    <hyperlink ref="O24" r:id="rId24"/>
+    <hyperlink ref="N25" r:id="rId25"/>
+    <hyperlink ref="O25" r:id="rId26"/>
+    <hyperlink ref="N26" r:id="rId27"/>
+    <hyperlink ref="O26" r:id="rId28"/>
+    <hyperlink ref="N27" r:id="rId29"/>
+    <hyperlink ref="O27" r:id="rId30"/>
+    <hyperlink ref="N30" r:id="rId31"/>
+    <hyperlink ref="O30" r:id="rId32"/>
+    <hyperlink ref="N36" r:id="rId33"/>
+    <hyperlink ref="O36" r:id="rId34"/>
+    <hyperlink ref="N37" r:id="rId35"/>
+    <hyperlink ref="O37" r:id="rId36"/>
+    <hyperlink ref="N38" r:id="rId37"/>
+    <hyperlink ref="O38" r:id="rId38"/>
+    <hyperlink ref="N39" r:id="rId39"/>
+    <hyperlink ref="O39" r:id="rId40"/>
+    <hyperlink ref="N40" r:id="rId41"/>
+    <hyperlink ref="O40" r:id="rId42"/>
+    <hyperlink ref="N41" r:id="rId43"/>
+    <hyperlink ref="O41" r:id="rId44"/>
+    <hyperlink ref="N43" r:id="rId45"/>
+    <hyperlink ref="O43" r:id="rId46"/>
+    <hyperlink ref="N44" r:id="rId47"/>
+    <hyperlink ref="O44" r:id="rId48"/>
+    <hyperlink ref="N47" r:id="rId49"/>
+    <hyperlink ref="O47" r:id="rId50"/>
+    <hyperlink ref="N48" r:id="rId51"/>
+    <hyperlink ref="O48" r:id="rId52"/>
+    <hyperlink ref="N53" r:id="rId53"/>
+    <hyperlink ref="O53" r:id="rId54"/>
+    <hyperlink ref="N55" r:id="rId55"/>
+    <hyperlink ref="O55" r:id="rId56"/>
+    <hyperlink ref="N56" r:id="rId57"/>
+    <hyperlink ref="O56" r:id="rId58"/>
+    <hyperlink ref="N57" r:id="rId59"/>
+    <hyperlink ref="O57" r:id="rId60"/>
+    <hyperlink ref="N59" r:id="rId61"/>
+    <hyperlink ref="O59" r:id="rId62"/>
+    <hyperlink ref="N61" r:id="rId63"/>
+    <hyperlink ref="O61" r:id="rId64"/>
+    <hyperlink ref="N62" r:id="rId65"/>
+    <hyperlink ref="O62" r:id="rId66"/>
+    <hyperlink ref="N66" r:id="rId67"/>
+    <hyperlink ref="O66" r:id="rId68"/>
+    <hyperlink ref="N67" r:id="rId69"/>
+    <hyperlink ref="O67" r:id="rId70"/>
+    <hyperlink ref="N68" r:id="rId71"/>
+    <hyperlink ref="O68" r:id="rId72"/>
+    <hyperlink ref="N69" r:id="rId73"/>
+    <hyperlink ref="O69" r:id="rId74"/>
+    <hyperlink ref="N70" r:id="rId75"/>
+    <hyperlink ref="O70" r:id="rId76"/>
+    <hyperlink ref="N71" r:id="rId77"/>
+    <hyperlink ref="O71" r:id="rId78"/>
+    <hyperlink ref="N72" r:id="rId79"/>
+    <hyperlink ref="O72" r:id="rId80"/>
+    <hyperlink ref="N74" r:id="rId81"/>
+    <hyperlink ref="O74" r:id="rId82"/>
+    <hyperlink ref="N75" r:id="rId83"/>
+    <hyperlink ref="O75" r:id="rId84"/>
+    <hyperlink ref="N76" r:id="rId85"/>
+    <hyperlink ref="O76" r:id="rId86"/>
+    <hyperlink ref="N77" r:id="rId87"/>
+    <hyperlink ref="O77" r:id="rId88"/>
+    <hyperlink ref="N78" r:id="rId89"/>
+    <hyperlink ref="O78" r:id="rId90"/>
+    <hyperlink ref="N79" r:id="rId91"/>
+    <hyperlink ref="O79" r:id="rId92"/>
+    <hyperlink ref="N80" r:id="rId93"/>
+    <hyperlink ref="O80" r:id="rId94"/>
+    <hyperlink ref="N81" r:id="rId95"/>
+    <hyperlink ref="O81" r:id="rId96"/>
+    <hyperlink ref="N82" r:id="rId97"/>
+    <hyperlink ref="O82" r:id="rId98"/>
+    <hyperlink ref="N86" r:id="rId99"/>
+    <hyperlink ref="O86" r:id="rId100"/>
+    <hyperlink ref="N87" r:id="rId101"/>
+    <hyperlink ref="O87" r:id="rId102"/>
+    <hyperlink ref="N88" r:id="rId103"/>
+    <hyperlink ref="O88" r:id="rId104"/>
+    <hyperlink ref="N90" r:id="rId105"/>
+    <hyperlink ref="O90" r:id="rId106"/>
+    <hyperlink ref="N91" r:id="rId107"/>
+    <hyperlink ref="O91" r:id="rId108"/>
+    <hyperlink ref="N92" r:id="rId109"/>
+    <hyperlink ref="O92" r:id="rId110"/>
+    <hyperlink ref="N97" r:id="rId111"/>
+    <hyperlink ref="O97" r:id="rId112"/>
+    <hyperlink ref="N103" r:id="rId113"/>
+    <hyperlink ref="O103" r:id="rId114"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/01_Output/AlarmasU2020_Tower3_2023-03-21 12 35 29.xlsx
+++ b/public/01_Output/AlarmasU2020_Tower3_2023-03-21 12 35 29.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3242" uniqueCount="487">
   <si>
     <t>Name</t>
   </si>
@@ -9130,8 +9130,8 @@
       <c r="P77" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q77" s="2" t="s">
-        <v>49</v>
+      <c r="Q77" s="4">
+        <v>45007</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -12036,8 +12036,8 @@
       <c r="L32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>49</v>
+      <c r="M32" s="4">
+        <v>45007</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>49</v>
